--- a/contratos/contratos-3-2014.xlsx
+++ b/contratos/contratos-3-2014.xlsx
@@ -634,13 +634,13 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
   </si>
   <si>
     <t>TURIN ALBERTO JOSE</t>
@@ -688,7 +688,7 @@
     <t>PEREZ RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -736,7 +736,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>PREISZ LUCRECIA MARGARITA</t>
@@ -766,7 +766,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>EICHHORST ROBERTO DIONISIO</t>
@@ -778,7 +778,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>LAMBERT CARLOS MIGUEL</t>
@@ -880,7 +880,7 @@
     <t>RODE NELSON FEDERICO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1099,7 +1099,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1255,574 +1255,574 @@
     <t>5</t>
   </si>
   <si>
-    <t>1.825,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>88.000,00</t>
-  </si>
-  <si>
-    <t>72.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>698.499,80</t>
-  </si>
-  <si>
-    <t>15.846,80</t>
-  </si>
-  <si>
-    <t>1.840,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>55.506,00</t>
-  </si>
-  <si>
-    <t>144.818,52</t>
-  </si>
-  <si>
-    <t>181.367,87</t>
-  </si>
-  <si>
-    <t>16.061,75</t>
-  </si>
-  <si>
-    <t>1.890,00</t>
-  </si>
-  <si>
-    <t>4.537,90</t>
-  </si>
-  <si>
-    <t>512,00</t>
-  </si>
-  <si>
-    <t>13.355,42</t>
-  </si>
-  <si>
-    <t>9.810,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>7.677,00</t>
-  </si>
-  <si>
-    <t>887,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>5.297,59</t>
-  </si>
-  <si>
-    <t>955,96</t>
-  </si>
-  <si>
-    <t>363,00</t>
-  </si>
-  <si>
-    <t>38,24</t>
-  </si>
-  <si>
-    <t>7.596,00</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>1.382,91</t>
-  </si>
-  <si>
-    <t>2.898,00</t>
-  </si>
-  <si>
-    <t>1.746,00</t>
-  </si>
-  <si>
-    <t>3.238,00</t>
-  </si>
-  <si>
-    <t>16.834,85</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>1.332,80</t>
-  </si>
-  <si>
-    <t>17.281,68</t>
-  </si>
-  <si>
-    <t>58,30</t>
-  </si>
-  <si>
-    <t>5.195,00</t>
-  </si>
-  <si>
-    <t>281.400,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>930,47</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>55.001,41</t>
-  </si>
-  <si>
-    <t>456,00</t>
-  </si>
-  <si>
-    <t>229,20</t>
-  </si>
-  <si>
-    <t>10.490,00</t>
-  </si>
-  <si>
-    <t>1.585,33</t>
-  </si>
-  <si>
-    <t>937,60</t>
-  </si>
-  <si>
-    <t>5.065,00</t>
-  </si>
-  <si>
-    <t>591,46</t>
-  </si>
-  <si>
-    <t>495,00</t>
-  </si>
-  <si>
-    <t>953,00</t>
-  </si>
-  <si>
-    <t>2.167,00</t>
-  </si>
-  <si>
-    <t>94,16</t>
-  </si>
-  <si>
-    <t>354,34</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>13.870,00</t>
-  </si>
-  <si>
-    <t>2.360,00</t>
-  </si>
-  <si>
-    <t>19.008,00</t>
-  </si>
-  <si>
-    <t>24.288,00</t>
-  </si>
-  <si>
-    <t>2.720,00</t>
-  </si>
-  <si>
-    <t>11.607,95</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>1.065,00</t>
-  </si>
-  <si>
-    <t>114,72</t>
-  </si>
-  <si>
-    <t>8.647,00</t>
-  </si>
-  <si>
-    <t>2.816,35</t>
-  </si>
-  <si>
-    <t>1.640,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>2.164,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>2.178,00</t>
-  </si>
-  <si>
-    <t>270.000,00</t>
-  </si>
-  <si>
-    <t>12.353,16</t>
-  </si>
-  <si>
-    <t>8.218,00</t>
-  </si>
-  <si>
-    <t>23,15</t>
-  </si>
-  <si>
-    <t>1.747,00</t>
-  </si>
-  <si>
-    <t>14.136,15</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>199,33</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>1.851,20</t>
-  </si>
-  <si>
-    <t>2.014,00</t>
-  </si>
-  <si>
-    <t>4.347,19</t>
-  </si>
-  <si>
-    <t>8.703,50</t>
-  </si>
-  <si>
-    <t>1.316,40</t>
-  </si>
-  <si>
-    <t>1.309,28</t>
-  </si>
-  <si>
-    <t>76,04</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>12.224,10</t>
-  </si>
-  <si>
-    <t>1.395,00</t>
-  </si>
-  <si>
-    <t>4.162,00</t>
-  </si>
-  <si>
-    <t>1.152,86</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>138,27</t>
-  </si>
-  <si>
-    <t>203,70</t>
-  </si>
-  <si>
-    <t>8.050,00</t>
-  </si>
-  <si>
-    <t>1.910,00</t>
-  </si>
-  <si>
-    <t>4.180,00</t>
-  </si>
-  <si>
-    <t>522,00</t>
-  </si>
-  <si>
-    <t>1.053,00</t>
-  </si>
-  <si>
-    <t>368,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>1.585,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>2.946,75</t>
-  </si>
-  <si>
-    <t>1.393,50</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>855,54</t>
-  </si>
-  <si>
-    <t>225.783,00</t>
-  </si>
-  <si>
-    <t>159.999,87</t>
-  </si>
-  <si>
-    <t>22.976,16</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>8.462,00</t>
-  </si>
-  <si>
-    <t>8.167,50</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>6.497,40</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>4.655,00</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>10.560,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>558,00</t>
-  </si>
-  <si>
-    <t>1.030,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>4.759,20</t>
-  </si>
-  <si>
-    <t>73,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
-  </si>
-  <si>
-    <t>787,00</t>
-  </si>
-  <si>
-    <t>4.428,98</t>
-  </si>
-  <si>
-    <t>27.700,00</t>
-  </si>
-  <si>
-    <t>2.405,00</t>
-  </si>
-  <si>
-    <t>180,70</t>
-  </si>
-  <si>
-    <t>662,83</t>
-  </si>
-  <si>
-    <t>1.551,43</t>
-  </si>
-  <si>
-    <t>449,86</t>
-  </si>
-  <si>
-    <t>455,00</t>
-  </si>
-  <si>
-    <t>6.487,00</t>
-  </si>
-  <si>
-    <t>7.720,80</t>
-  </si>
-  <si>
-    <t>4.360,00</t>
-  </si>
-  <si>
-    <t>272,02</t>
-  </si>
-  <si>
-    <t>946,42</t>
-  </si>
-  <si>
-    <t>58,78</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>2.628,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>1.655,75</t>
-  </si>
-  <si>
-    <t>8.217,00</t>
-  </si>
-  <si>
-    <t>7.374,20</t>
-  </si>
-  <si>
-    <t>1.273,51</t>
-  </si>
-  <si>
-    <t>1.449,00</t>
-  </si>
-  <si>
-    <t>1.778,63</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>621.574,12</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>17.620,00</t>
-  </si>
-  <si>
-    <t>3.891,51</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>168.760,92</t>
-  </si>
-  <si>
-    <t>126.100,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>145.900,00</t>
-  </si>
-  <si>
-    <t>822,80</t>
-  </si>
-  <si>
-    <t>1.245.438,22</t>
-  </si>
-  <si>
-    <t>43.500,00</t>
-  </si>
-  <si>
-    <t>135.400,00</t>
-  </si>
-  <si>
-    <t>8.506,90</t>
-  </si>
-  <si>
-    <t>126.905,00</t>
-  </si>
-  <si>
-    <t>1.196.958,77</t>
-  </si>
-  <si>
-    <t>9.365,80</t>
-  </si>
-  <si>
-    <t>96.000,00</t>
-  </si>
-  <si>
-    <t>4.762,54</t>
-  </si>
-  <si>
-    <t>302,01</t>
-  </si>
-  <si>
-    <t>2.703,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.795,00</t>
+    <t>1825.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>88000.00</t>
+  </si>
+  <si>
+    <t>72000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>698499.80</t>
+  </si>
+  <si>
+    <t>15846.80</t>
+  </si>
+  <si>
+    <t>1840.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>55506.00</t>
+  </si>
+  <si>
+    <t>144818.52</t>
+  </si>
+  <si>
+    <t>181367.87</t>
+  </si>
+  <si>
+    <t>16061.75</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>4537.90</t>
+  </si>
+  <si>
+    <t>512.00</t>
+  </si>
+  <si>
+    <t>13355.42</t>
+  </si>
+  <si>
+    <t>9810.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>7677.00</t>
+  </si>
+  <si>
+    <t>887.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>5297.59</t>
+  </si>
+  <si>
+    <t>955.96</t>
+  </si>
+  <si>
+    <t>363.00</t>
+  </si>
+  <si>
+    <t>38.24</t>
+  </si>
+  <si>
+    <t>7596.00</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>1382.91</t>
+  </si>
+  <si>
+    <t>2898.00</t>
+  </si>
+  <si>
+    <t>1746.00</t>
+  </si>
+  <si>
+    <t>3238.00</t>
+  </si>
+  <si>
+    <t>16834.85</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>1332.80</t>
+  </si>
+  <si>
+    <t>17281.68</t>
+  </si>
+  <si>
+    <t>58.30</t>
+  </si>
+  <si>
+    <t>5195.00</t>
+  </si>
+  <si>
+    <t>281400.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>930.47</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>55001.41</t>
+  </si>
+  <si>
+    <t>456.00</t>
+  </si>
+  <si>
+    <t>229.20</t>
+  </si>
+  <si>
+    <t>10490.00</t>
+  </si>
+  <si>
+    <t>1585.33</t>
+  </si>
+  <si>
+    <t>937.60</t>
+  </si>
+  <si>
+    <t>5065.00</t>
+  </si>
+  <si>
+    <t>591.46</t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>953.00</t>
+  </si>
+  <si>
+    <t>2167.00</t>
+  </si>
+  <si>
+    <t>94.16</t>
+  </si>
+  <si>
+    <t>354.34</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>13870.00</t>
+  </si>
+  <si>
+    <t>2360.00</t>
+  </si>
+  <si>
+    <t>19008.00</t>
+  </si>
+  <si>
+    <t>24288.00</t>
+  </si>
+  <si>
+    <t>2720.00</t>
+  </si>
+  <si>
+    <t>11607.95</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>1065.00</t>
+  </si>
+  <si>
+    <t>114.72</t>
+  </si>
+  <si>
+    <t>8647.00</t>
+  </si>
+  <si>
+    <t>2816.35</t>
+  </si>
+  <si>
+    <t>1640.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>2164.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>2178.00</t>
+  </si>
+  <si>
+    <t>270000.00</t>
+  </si>
+  <si>
+    <t>12353.16</t>
+  </si>
+  <si>
+    <t>8218.00</t>
+  </si>
+  <si>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>1747.00</t>
+  </si>
+  <si>
+    <t>14136.15</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>199.33</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>1851.20</t>
+  </si>
+  <si>
+    <t>2014.00</t>
+  </si>
+  <si>
+    <t>4347.19</t>
+  </si>
+  <si>
+    <t>8703.50</t>
+  </si>
+  <si>
+    <t>1316.40</t>
+  </si>
+  <si>
+    <t>1309.28</t>
+  </si>
+  <si>
+    <t>76.04</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>12224.10</t>
+  </si>
+  <si>
+    <t>1395.00</t>
+  </si>
+  <si>
+    <t>4162.00</t>
+  </si>
+  <si>
+    <t>1152.86</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>138.27</t>
+  </si>
+  <si>
+    <t>203.70</t>
+  </si>
+  <si>
+    <t>8050.00</t>
+  </si>
+  <si>
+    <t>1910.00</t>
+  </si>
+  <si>
+    <t>4180.00</t>
+  </si>
+  <si>
+    <t>522.00</t>
+  </si>
+  <si>
+    <t>1053.00</t>
+  </si>
+  <si>
+    <t>368.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>1585.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>2946.75</t>
+  </si>
+  <si>
+    <t>1393.50</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>855.54</t>
+  </si>
+  <si>
+    <t>225783.00</t>
+  </si>
+  <si>
+    <t>159999.87</t>
+  </si>
+  <si>
+    <t>22976.16</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>8462.00</t>
+  </si>
+  <si>
+    <t>8167.50</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>6497.40</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>4655.00</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>10560.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>558.00</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>4759.20</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>787.00</t>
+  </si>
+  <si>
+    <t>4428.98</t>
+  </si>
+  <si>
+    <t>27700.00</t>
+  </si>
+  <si>
+    <t>2405.00</t>
+  </si>
+  <si>
+    <t>180.70</t>
+  </si>
+  <si>
+    <t>662.83</t>
+  </si>
+  <si>
+    <t>1551.43</t>
+  </si>
+  <si>
+    <t>449.86</t>
+  </si>
+  <si>
+    <t>455.00</t>
+  </si>
+  <si>
+    <t>6487.00</t>
+  </si>
+  <si>
+    <t>7720.80</t>
+  </si>
+  <si>
+    <t>4360.00</t>
+  </si>
+  <si>
+    <t>272.02</t>
+  </si>
+  <si>
+    <t>946.42</t>
+  </si>
+  <si>
+    <t>58.78</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>2628.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>1655.75</t>
+  </si>
+  <si>
+    <t>8217.00</t>
+  </si>
+  <si>
+    <t>7374.20</t>
+  </si>
+  <si>
+    <t>1273.51</t>
+  </si>
+  <si>
+    <t>1449.00</t>
+  </si>
+  <si>
+    <t>1778.63</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>621574.12</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>17620.00</t>
+  </si>
+  <si>
+    <t>3891.51</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>168760.92</t>
+  </si>
+  <si>
+    <t>126100.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>145900.00</t>
+  </si>
+  <si>
+    <t>822.80</t>
+  </si>
+  <si>
+    <t>1245438.22</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>135400.00</t>
+  </si>
+  <si>
+    <t>8506.90</t>
+  </si>
+  <si>
+    <t>126905.00</t>
+  </si>
+  <si>
+    <t>1196958.77</t>
+  </si>
+  <si>
+    <t>9365.80</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>4762.54</t>
+  </si>
+  <si>
+    <t>302.01</t>
+  </si>
+  <si>
+    <t>2703.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1795.00</t>
   </si>
 </sst>
 </file>
